--- a/TFLite_OOM_Solution/training_result.xlsx
+++ b/TFLite_OOM_Solution/training_result.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Studied_in_NOSLab\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\study\Studied_in_NOSLab\TFLite_OOM_Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26C45EAB-A468-4628-B5F6-508C67525EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F012D16-B952-4551-ABA8-FC503E4E2AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{328DD47E-5E92-4019-B1A8-2AE1A0EAD3E9}"/>
+    <workbookView xWindow="0" yWindow="2310" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{328DD47E-5E92-4019-B1A8-2AE1A0EAD3E9}"/>
   </bookViews>
   <sheets>
     <sheet name="샘플 직접추가" sheetId="1" r:id="rId1"/>
     <sheet name="자동화" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="60">
   <si>
     <t xml:space="preserve">오리지널 1500장 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,6 +255,14 @@
   </si>
   <si>
     <t>Galaxy S20+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposed scheme</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6483,632 +6490,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$C$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$B$117:$B$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$C$117:$C$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.2300590299999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF38-4D1A-B04A-34D129BE6489}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$D$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$B$117:$B$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$D$117:$D$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.10446983</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920966E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CF38-4D1A-B04A-34D129BE6489}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30516347336879168"/>
-          <c:y val="0.10755585956062133"/>
-          <c:w val="0.4964854506298817"/>
-          <c:h val="0.12983917510856213"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -7382,3505 +6763,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FBE2-4DD9-8DEF-C8AC1C5D83E6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30516347336879168"/>
-          <c:y val="0.10755585956062133"/>
-          <c:w val="0.4964854506298817"/>
-          <c:h val="0.12983917510856213"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$C$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>오리지널</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$B$89:$B$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$C$89:$C$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.12088612999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1921068E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1921068E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1921068E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1921071E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F505-42B5-92E7-46430B6F34A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$D$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$B$89:$B$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$D$89:$D$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.12787333000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.195849E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1948400000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1641842000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1937419E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1934300000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1932055E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1926014E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1926014E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1925545000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F505-42B5-92E7-46430B6F34A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$E$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$B$89:$B$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$E$89:$E$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.11969349999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F505-42B5-92E7-46430B6F34A8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20520039725448119"/>
-          <c:y val="0.11161265880687372"/>
-          <c:w val="0.69483661659924745"/>
-          <c:h val="0.11800741854739066"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$M$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>오리지널</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$L$89:$L$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$M$89:$M$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.14040755999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C9B6-4234-8E0B-471E69529C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$N$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$L$89:$L$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$N$89:$N$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.12086470000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1921989E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9B6-4234-8E0B-471E69529C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$O$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$L$89:$L$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$O$89:$O$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.1208814</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C9B6-4234-8E0B-471E69529C7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20520039725448119"/>
-          <c:y val="0.11161265880687372"/>
-          <c:w val="0.69483661659924745"/>
-          <c:h val="0.11800741854739066"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$M$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$L$117:$L$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$M$117:$M$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.1249729999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0295234000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0295249999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0295430000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0295230000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0295230000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8297-40AA-AAAB-6EF7A4013B44}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$N$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$L$117:$L$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$N$117:$N$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.74453926000000004</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.4045810000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.3728166999999997E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8297-40AA-AAAB-6EF7A4013B44}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.30516347336879168"/>
-          <c:y val="0.10755585956062133"/>
-          <c:w val="0.4964854506298817"/>
-          <c:h val="0.12983917510856213"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$W$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>오리지널</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$V$89:$V$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$W$89:$W$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.13878441999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1932780999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1928519E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1926420000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1925113999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1926420000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1924281E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1923322E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1923011799999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1322785E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E599-40C6-AAC6-ED52D37065B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$X$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$V$89:$V$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$X$89:$X$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.12885246</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E599-40C6-AAC6-ED52D37065B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$Y$88</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$V$89:$V$98</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$Y$89:$Y$98</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.12747453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1920929000000001E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E599-40C6-AAC6-ED52D37065B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="104661167"/>
-        <c:axId val="104654511"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="104661167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Epoch</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="0" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104654511"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="0"/>
-        <c:tickMarkSkip val="1"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="104654511"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ko-KR"/>
-                  <a:t>Loss</a:t>
-                </a:r>
-                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="2.1232858154049225E-2"/>
-              <c:y val="0.347113422572705"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="104661167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-      </c:legendEntry>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.20520039725448119"/>
-          <c:y val="0.11161265880687372"/>
-          <c:w val="0.69483661659924745"/>
-          <c:h val="0.11800741854739066"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1600" b="1">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13777733652119242"/>
-          <c:y val="5.0231758188816755E-2"/>
-          <c:w val="0.8125715069977768"/>
-          <c:h val="0.78316411935774433"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$W$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$V$117:$V$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$W$117:$W$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>4.0295249999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0295249999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0295253000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0295243000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.0295240000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FD8-4C28-8501-F54C9BB60937}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>자동화!$X$116</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>V2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>자동화!$V$117:$V$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>자동화!$X$117:$X$126</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.105145365</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.3761820000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1921512999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1921512999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.1921512999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1921512999999999E-7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1921496000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1924489E-7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1921482000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.1921474999999999E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FD8-4C28-8501-F54C9BB60937}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -16345,247 +12227,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22007,3103 +17649,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29894,234 +22440,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>335627</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>189698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>550953</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>137761</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="차트 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D82AE0-FB98-4A45-BD83-2E593CF1B7DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518673</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>216913</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53642</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>34507</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="차트 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1746EC68-2A33-48F4-8C65-6005FB98C8A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355023</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>4948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>40908</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>47679</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="차트 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885CB84D-6EC9-4985-ACF8-BFC49F6B7147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>166996</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>664363</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>115060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="차트 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{993C67CD-A08F-48A6-BA08-07156CA465B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>355023</xdr:colOff>
-      <xdr:row>171</xdr:row>
-      <xdr:rowOff>4948</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>40908</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>47679</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="차트 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC7CFEE-2C54-40C7-A72E-3A30AF22EC9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>198</xdr:row>
-      <xdr:rowOff>149678</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>324184</xdr:colOff>
-      <xdr:row>213</xdr:row>
-      <xdr:rowOff>97742</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="차트 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD72941-CD8E-46C5-8BB1-86217329EC0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -33716,10 +26034,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571120BA-6FFE-4D03-A07D-1765C3EDC42D}">
-  <dimension ref="A2:AL198"/>
+  <dimension ref="A2:AM198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AH174" sqref="AG174:AH174"/>
+    <sheetView tabSelected="1" topLeftCell="F85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AK94" sqref="AK94:AK103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -36151,32 +28469,32 @@
       <c r="H80" s="1"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81"/>
       <c r="H81" s="1"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82"/>
       <c r="H82" s="1"/>
       <c r="I82"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83"/>
       <c r="H83" s="1"/>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84"/>
       <c r="H84" s="1"/>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85"/>
       <c r="H85" s="1"/>
       <c r="I85"/>
     </row>
-    <row r="87" spans="1:26" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>7</v>
       </c>
@@ -36187,7 +28505,7 @@
       <c r="V87" s="1"/>
       <c r="W87" s="3"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>26</v>
       </c>
@@ -36234,7 +28552,7 @@
       </c>
       <c r="Z88" s="6"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B89" s="1">
         <v>1</v>
       </c>
@@ -36274,7 +28592,7 @@
         <v>0.12747453</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B90" s="1">
         <v>2</v>
       </c>
@@ -36314,7 +28632,7 @@
         <v>1.1920929000000001E-7</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B91" s="1">
         <v>3</v>
       </c>
@@ -36354,7 +28672,7 @@
         <v>1.1920929000000001E-7</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B92" s="1">
         <v>4</v>
       </c>
@@ -36394,7 +28712,7 @@
         <v>1.1920929000000001E-7</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B93" s="1">
         <v>5</v>
       </c>
@@ -36433,8 +28751,16 @@
       <c r="Y93" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI93" s="6"/>
+      <c r="AJ93" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK93" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM93" s="6"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B94" s="1">
         <v>6</v>
       </c>
@@ -36473,8 +28799,17 @@
       <c r="Y94" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ94">
+        <v>0.12088612999999999</v>
+      </c>
+      <c r="AK94">
+        <v>0.11969349999999999</v>
+      </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B95" s="1">
         <v>7</v>
       </c>
@@ -36513,8 +28848,17 @@
       <c r="Y95" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ95" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK95" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="B96" s="1">
         <v>8</v>
       </c>
@@ -36553,8 +28897,17 @@
       <c r="Y96" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ96" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK96" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
     </row>
-    <row r="97" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B97" s="1">
         <v>9</v>
       </c>
@@ -36593,8 +28946,17 @@
       <c r="Y97" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ97" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK97" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
     </row>
-    <row r="98" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B98" s="1">
         <v>10</v>
       </c>
@@ -36633,16 +28995,76 @@
       <c r="Y98" s="7">
         <v>1.1920929000000001E-7</v>
       </c>
+      <c r="AI98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ98" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK98" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
     </row>
-    <row r="99" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
+      <c r="AI99" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ99" s="7">
+        <v>1.1921068E-7</v>
+      </c>
+      <c r="AK99" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
     </row>
-    <row r="101" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AI100" s="1">
+        <v>7</v>
+      </c>
+      <c r="AJ100" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK100" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:37" x14ac:dyDescent="0.3">
       <c r="P101" t="s">
         <v>29</v>
       </c>
       <c r="Z101" t="s">
         <v>29</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>8</v>
+      </c>
+      <c r="AJ101" s="7">
+        <v>1.1921068E-7</v>
+      </c>
+      <c r="AK101" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
+    </row>
+    <row r="102" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AI102" s="1">
+        <v>9</v>
+      </c>
+      <c r="AJ102" s="7">
+        <v>1.1921068E-7</v>
+      </c>
+      <c r="AK102" s="7">
+        <v>1.1920929000000001E-7</v>
+      </c>
+    </row>
+    <row r="103" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="AI103" s="1">
+        <v>10</v>
+      </c>
+      <c r="AJ103" s="7">
+        <v>1.1921071E-7</v>
+      </c>
+      <c r="AK103" s="7">
+        <v>1.1920929000000001E-7</v>
       </c>
     </row>
     <row r="115" spans="1:24" x14ac:dyDescent="0.3">
@@ -37001,9 +29423,7 @@
       <c r="V127" s="1"/>
     </row>
     <row r="158" spans="1:26" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B158" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B158" s="3"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="3"/>
@@ -37012,542 +29432,330 @@
       <c r="W158" s="3"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="A159" s="6"/>
       <c r="B159" s="6"/>
-      <c r="C159" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
       <c r="I159" s="6"/>
-      <c r="K159" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K159" s="6"/>
       <c r="L159" s="6"/>
-      <c r="M159" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O159" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="M159" s="5"/>
+      <c r="N159" s="5"/>
+      <c r="O159" s="5"/>
       <c r="P159" s="6"/>
-      <c r="U159" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="U159" s="6"/>
       <c r="V159" s="6"/>
-      <c r="W159" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X159" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y159" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="W159" s="5"/>
+      <c r="X159" s="5"/>
+      <c r="Y159" s="5"/>
       <c r="Z159" s="6"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B160" s="1">
-        <v>1</v>
-      </c>
+      <c r="B160" s="1"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="1">
-        <v>1</v>
-      </c>
+      <c r="L160" s="1"/>
       <c r="U160" s="1"/>
-      <c r="V160" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y160">
-        <v>2.8374107</v>
-      </c>
+      <c r="V160" s="1"/>
     </row>
-    <row r="161" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B161" s="1">
-        <v>2</v>
-      </c>
+    <row r="161" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B161" s="1"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="1">
-        <v>2</v>
-      </c>
+      <c r="L161" s="1"/>
       <c r="M161" s="7"/>
       <c r="N161" s="7"/>
       <c r="O161" s="7"/>
       <c r="U161" s="1"/>
-      <c r="V161" s="1">
-        <v>2</v>
-      </c>
+      <c r="V161" s="1"/>
       <c r="W161" s="7"/>
       <c r="X161" s="7"/>
-      <c r="Y161" s="7">
-        <v>2.8373982999999998</v>
-      </c>
+      <c r="Y161" s="7"/>
     </row>
-    <row r="162" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B162" s="1">
-        <v>3</v>
-      </c>
+    <row r="162" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B162" s="1"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="1">
-        <v>3</v>
-      </c>
+      <c r="L162" s="1"/>
       <c r="M162" s="7"/>
       <c r="N162" s="7"/>
       <c r="O162" s="7"/>
       <c r="U162" s="1"/>
-      <c r="V162" s="1">
-        <v>3</v>
-      </c>
+      <c r="V162" s="1"/>
       <c r="W162" s="7"/>
       <c r="X162" s="7"/>
-      <c r="Y162" s="7">
-        <v>2.8373590000000002</v>
-      </c>
+      <c r="Y162" s="7"/>
     </row>
-    <row r="163" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B163" s="1">
-        <v>4</v>
-      </c>
+    <row r="163" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B163" s="1"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="1">
-        <v>4</v>
-      </c>
+      <c r="L163" s="1"/>
       <c r="M163" s="7"/>
       <c r="N163" s="7"/>
       <c r="O163" s="7"/>
       <c r="U163" s="1"/>
-      <c r="V163" s="1">
-        <v>4</v>
-      </c>
+      <c r="V163" s="1"/>
       <c r="W163" s="7"/>
       <c r="X163" s="7"/>
-      <c r="Y163" s="7">
-        <v>2.8373355999999998</v>
-      </c>
+      <c r="Y163" s="7"/>
     </row>
-    <row r="164" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B164" s="1">
-        <v>5</v>
-      </c>
+    <row r="164" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B164" s="1"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="K164" s="1"/>
-      <c r="L164" s="1">
-        <v>5</v>
-      </c>
+      <c r="L164" s="1"/>
       <c r="M164" s="7"/>
       <c r="N164" s="7"/>
       <c r="O164" s="7"/>
       <c r="U164" s="1"/>
-      <c r="V164" s="1">
-        <v>5</v>
-      </c>
+      <c r="V164" s="1"/>
       <c r="W164" s="7"/>
       <c r="X164" s="7"/>
-      <c r="Y164" s="7">
-        <v>2.8372826999999998</v>
-      </c>
+      <c r="Y164" s="7"/>
     </row>
-    <row r="165" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B165" s="1">
-        <v>6</v>
-      </c>
+    <row r="165" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B165" s="1"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="K165" s="1"/>
-      <c r="L165" s="1">
-        <v>6</v>
-      </c>
+      <c r="L165" s="1"/>
       <c r="M165" s="7"/>
       <c r="N165" s="7"/>
       <c r="O165" s="7"/>
       <c r="U165" s="1"/>
-      <c r="V165" s="1">
-        <v>6</v>
-      </c>
+      <c r="V165" s="1"/>
       <c r="W165" s="7"/>
       <c r="X165" s="7"/>
-      <c r="Y165" s="7">
-        <v>2.8372540000000002</v>
-      </c>
+      <c r="Y165" s="7"/>
     </row>
-    <row r="166" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B166" s="1">
-        <v>7</v>
-      </c>
+    <row r="166" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B166" s="1"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="K166" s="1"/>
-      <c r="L166" s="1">
-        <v>7</v>
-      </c>
+      <c r="L166" s="1"/>
       <c r="M166" s="7"/>
       <c r="N166" s="7"/>
       <c r="O166" s="7"/>
       <c r="U166" s="1"/>
-      <c r="V166" s="1">
-        <v>7</v>
-      </c>
+      <c r="V166" s="1"/>
       <c r="W166" s="7"/>
       <c r="X166" s="7"/>
-      <c r="Y166" s="7">
-        <v>2.8372435999999999</v>
-      </c>
+      <c r="Y166" s="7"/>
     </row>
-    <row r="167" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B167" s="1">
-        <v>8</v>
-      </c>
+    <row r="167" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B167" s="1"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="K167" s="1"/>
-      <c r="L167" s="1">
-        <v>8</v>
-      </c>
+      <c r="L167" s="1"/>
       <c r="M167" s="7"/>
       <c r="N167" s="7"/>
       <c r="O167" s="7"/>
       <c r="U167" s="1"/>
-      <c r="V167" s="1">
-        <v>8</v>
-      </c>
+      <c r="V167" s="1"/>
       <c r="W167" s="7"/>
       <c r="X167" s="7"/>
-      <c r="Y167" s="7">
-        <v>2.8371599999999999</v>
-      </c>
+      <c r="Y167" s="7"/>
     </row>
-    <row r="168" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B168" s="1">
-        <v>9</v>
-      </c>
+    <row r="168" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B168" s="1"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="K168" s="1"/>
-      <c r="L168" s="1">
-        <v>9</v>
-      </c>
+      <c r="L168" s="1"/>
       <c r="M168" s="7"/>
       <c r="N168" s="7"/>
       <c r="O168" s="7"/>
       <c r="U168" s="1"/>
-      <c r="V168" s="1">
-        <v>9</v>
-      </c>
+      <c r="V168" s="1"/>
       <c r="W168" s="7"/>
       <c r="X168" s="7"/>
-      <c r="Y168" s="7">
-        <v>2.8371263</v>
-      </c>
+      <c r="Y168" s="7"/>
     </row>
-    <row r="169" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B169" s="1">
-        <v>10</v>
-      </c>
+    <row r="169" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B169" s="1"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="K169" s="1"/>
-      <c r="L169" s="1">
-        <v>10</v>
-      </c>
+      <c r="L169" s="1"/>
       <c r="M169" s="7"/>
       <c r="N169" s="7"/>
       <c r="O169" s="7"/>
       <c r="U169" s="1"/>
-      <c r="V169" s="1">
-        <v>10</v>
-      </c>
+      <c r="V169" s="1"/>
       <c r="W169" s="7"/>
       <c r="X169" s="7"/>
-      <c r="Y169" s="7">
-        <v>2.8370926000000001</v>
-      </c>
+      <c r="Y169" s="7"/>
     </row>
-    <row r="170" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
     </row>
-    <row r="172" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="P172" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z172" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:24" x14ac:dyDescent="0.3">
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
     </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="187" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B187" s="6"/>
-      <c r="C187" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="K187" s="1"/>
       <c r="L187" s="6"/>
-      <c r="M187" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N187" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U187" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="M187" s="5"/>
+      <c r="N187" s="5"/>
+      <c r="U187" s="1"/>
       <c r="V187" s="6"/>
-      <c r="W187" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="X187" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="W187" s="5"/>
+      <c r="X187" s="5"/>
     </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B188" s="1">
-        <v>1</v>
-      </c>
+    <row r="188" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B188" s="1"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="K188" s="1"/>
-      <c r="L188" s="1">
-        <v>1</v>
-      </c>
+      <c r="L188" s="1"/>
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="U188" s="1"/>
-      <c r="V188" s="1">
-        <v>1</v>
-      </c>
+      <c r="V188" s="1"/>
       <c r="W188" s="7"/>
-      <c r="X188" s="7">
-        <v>1.1920929000000001E-7</v>
-      </c>
+      <c r="X188" s="7"/>
     </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B189" s="1">
-        <v>2</v>
-      </c>
+    <row r="189" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B189" s="1"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
       <c r="K189" s="1"/>
-      <c r="L189" s="1">
-        <v>2</v>
-      </c>
+      <c r="L189" s="1"/>
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="U189" s="1"/>
-      <c r="V189" s="1">
-        <v>2</v>
-      </c>
+      <c r="V189" s="1"/>
       <c r="W189" s="7"/>
-      <c r="X189" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X189" s="7"/>
     </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B190" s="1">
-        <v>3</v>
-      </c>
+    <row r="190" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B190" s="1"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="K190" s="1"/>
-      <c r="L190" s="1">
-        <v>3</v>
-      </c>
+      <c r="L190" s="1"/>
       <c r="M190" s="7"/>
       <c r="N190" s="7"/>
       <c r="U190" s="1"/>
-      <c r="V190" s="1">
-        <v>3</v>
-      </c>
+      <c r="V190" s="1"/>
       <c r="W190" s="7"/>
-      <c r="X190" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X190" s="7"/>
     </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B191" s="1">
-        <v>4</v>
-      </c>
+    <row r="191" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B191" s="1"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
       <c r="K191" s="1"/>
-      <c r="L191" s="1">
-        <v>4</v>
-      </c>
+      <c r="L191" s="1"/>
       <c r="M191" s="7"/>
       <c r="N191" s="7"/>
       <c r="U191" s="1"/>
-      <c r="V191" s="1">
-        <v>4</v>
-      </c>
+      <c r="V191" s="1"/>
       <c r="W191" s="7"/>
-      <c r="X191" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X191" s="7"/>
     </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B192" s="1">
-        <v>5</v>
-      </c>
+    <row r="192" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B192" s="1"/>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="K192" s="1"/>
-      <c r="L192" s="1">
-        <v>5</v>
-      </c>
+      <c r="L192" s="1"/>
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
       <c r="U192" s="1"/>
-      <c r="V192" s="1">
-        <v>5</v>
-      </c>
+      <c r="V192" s="1"/>
       <c r="W192" s="7"/>
-      <c r="X192" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X192" s="7"/>
     </row>
     <row r="193" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B193" s="1">
-        <v>6</v>
-      </c>
+      <c r="B193" s="1"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
       <c r="K193" s="1"/>
-      <c r="L193" s="1">
-        <v>6</v>
-      </c>
+      <c r="L193" s="1"/>
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
       <c r="U193" s="1"/>
-      <c r="V193" s="1">
-        <v>6</v>
-      </c>
+      <c r="V193" s="1"/>
       <c r="W193" s="7"/>
-      <c r="X193" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X193" s="7"/>
     </row>
     <row r="194" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B194" s="1">
-        <v>7</v>
-      </c>
+      <c r="B194" s="1"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="1">
-        <v>7</v>
-      </c>
+      <c r="L194" s="1"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
       <c r="U194" s="1"/>
-      <c r="V194" s="1">
-        <v>7</v>
-      </c>
+      <c r="V194" s="1"/>
       <c r="W194" s="7"/>
-      <c r="X194" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X194" s="7"/>
     </row>
     <row r="195" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B195" s="1">
-        <v>8</v>
-      </c>
+      <c r="B195" s="1"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="1">
-        <v>8</v>
-      </c>
+      <c r="L195" s="1"/>
       <c r="M195" s="7"/>
       <c r="N195" s="7"/>
       <c r="U195" s="1"/>
-      <c r="V195" s="1">
-        <v>8</v>
-      </c>
+      <c r="V195" s="1"/>
       <c r="W195" s="7"/>
-      <c r="X195" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X195" s="7"/>
     </row>
     <row r="196" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B196" s="1">
-        <v>9</v>
-      </c>
+      <c r="B196" s="1"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
       <c r="K196" s="1"/>
-      <c r="L196" s="1">
-        <v>9</v>
-      </c>
+      <c r="L196" s="1"/>
       <c r="M196" s="7"/>
       <c r="N196" s="7"/>
       <c r="U196" s="1"/>
-      <c r="V196" s="1">
-        <v>9</v>
-      </c>
+      <c r="V196" s="1"/>
       <c r="W196" s="7"/>
-      <c r="X196" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X196" s="7"/>
     </row>
     <row r="197" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B197" s="1">
-        <v>10</v>
-      </c>
+      <c r="B197" s="1"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="1">
-        <v>10</v>
-      </c>
+      <c r="L197" s="1"/>
       <c r="M197" s="7"/>
       <c r="N197" s="7"/>
       <c r="U197" s="1"/>
-      <c r="V197" s="1">
-        <v>10</v>
-      </c>
+      <c r="V197" s="1"/>
       <c r="W197" s="7"/>
-      <c r="X197" s="7">
-        <v>1.192093E-7</v>
-      </c>
+      <c r="X197" s="7"/>
     </row>
     <row r="198" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B198" s="1"/>
